--- a/biology/Médecine/Autorité_de_régulation_du_secteur_de_la_santé_(Bénin)/Autorité_de_régulation_du_secteur_de_la_santé_(Bénin).xlsx
+++ b/biology/Médecine/Autorité_de_régulation_du_secteur_de_la_santé_(Bénin)/Autorité_de_régulation_du_secteur_de_la_santé_(Bénin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Autorit%C3%A9_de_r%C3%A9gulation_du_secteur_de_la_sant%C3%A9_(B%C3%A9nin)</t>
+          <t>Autorité_de_régulation_du_secteur_de_la_santé_(Bénin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Autorité de Régulation du Secteur de la Santé, en abrégé ARS, est un établissement public à caractère Sanitaire et scientifique dotée d’une autonomie administrative et de gestion[1], décret n°2019-417 du 25 septembre 2019 portant création, attributions, organisation, fonctionnement de l'Autorité de Régulation Secteur de la Santé[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Autorité de Régulation du Secteur de la Santé, en abrégé ARS, est un établissement public à caractère Sanitaire et scientifique dotée d’une autonomie administrative et de gestion, décret n°2019-417 du 25 septembre 2019 portant création, attributions, organisation, fonctionnement de l'Autorité de Régulation Secteur de la Santé.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Autorit%C3%A9_de_r%C3%A9gulation_du_secteur_de_la_sant%C3%A9_(B%C3%A9nin)</t>
+          <t>Autorité_de_régulation_du_secteur_de_la_santé_(Bénin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Mission</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Placée sous la tutelle de la Présidence de la République, la mission de l'ARS consiste à garantir l'accès de tous les citoyens aux services de santé en assurant une amélioration constante de la qualité des prestations médicales[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Placée sous la tutelle de la Présidence de la République, la mission de l'ARS consiste à garantir l'accès de tous les citoyens aux services de santé en assurant une amélioration constante de la qualité des prestations médicales.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Autorit%C3%A9_de_r%C3%A9gulation_du_secteur_de_la_sant%C3%A9_(B%C3%A9nin)</t>
+          <t>Autorité_de_régulation_du_secteur_de_la_santé_(Bénin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Attributions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La responsabilité de l'ARS consiste à garantir la disponibilité de services de santé de qualité dans tout le pays, à établir des normes de qualité pour le secteur de la santé, à superviser l'accréditation des professionnels médicaux et paramédicaux, à certifier les établissements de santé et à en assurer le suivi, à veiller au respect des pratiques médicales et paramédicales approuvées, à développer et réguler la télémédecine, à donner un avis conforme sur le déploiement du personnel de santé du secteur public, à émettre des avis sur l'allocation des ressources budgétaires de l'État dans le domaine de la santé, et à surveiller l'exécution du budget du ministère de la Santé et à promouvoir la bonne gouvernance[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La responsabilité de l'ARS consiste à garantir la disponibilité de services de santé de qualité dans tout le pays, à établir des normes de qualité pour le secteur de la santé, à superviser l'accréditation des professionnels médicaux et paramédicaux, à certifier les établissements de santé et à en assurer le suivi, à veiller au respect des pratiques médicales et paramédicales approuvées, à développer et réguler la télémédecine, à donner un avis conforme sur le déploiement du personnel de santé du secteur public, à émettre des avis sur l'allocation des ressources budgétaires de l'État dans le domaine de la santé, et à surveiller l'exécution du budget du ministère de la Santé et à promouvoir la bonne gouvernance.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Autorit%C3%A9_de_r%C3%A9gulation_du_secteur_de_la_sant%C3%A9_(B%C3%A9nin)</t>
+          <t>Autorité_de_régulation_du_secteur_de_la_santé_(Bénin)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Organisations et Fonctionnement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les organes de l'Autorité de Régulation du Secteur de la Santé sont[5]:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les organes de l'Autorité de Régulation du Secteur de la Santé sont:
 le Collège;
 les commissions techniques;
 le Secrétariat exécutif.</t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Autorit%C3%A9_de_r%C3%A9gulation_du_secteur_de_la_sant%C3%A9_(B%C3%A9nin)</t>
+          <t>Autorité_de_régulation_du_secteur_de_la_santé_(Bénin)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Le Collège</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le collège est l'organe délibérant de l'Autorité de Régulation du secteur de la santé. Il exerce les attributions de l'Autorité de Régulation du secteur de la santé telles prédéfinies aux articles 4 et 5 du n°2019-417 du 25 septembre 2019 portant création, attributions, organisation, fonctionnement de l'Autorité de Régulation Secteur de la Santé. Par ailleurs, le Collège approuve[6],[7]:
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le collège est l'organe délibérant de l'Autorité de Régulation du secteur de la santé. Il exerce les attributions de l'Autorité de Régulation du secteur de la santé telles prédéfinies aux articles 4 et 5 du n°2019-417 du 25 septembre 2019 portant création, attributions, organisation, fonctionnement de l'Autorité de Régulation Secteur de la Santé. Par ailleurs, le Collège approuve,:
 le plan financier, les rapports comptables et les états financiers de l'entité régulatrice;
 les règles internes de l'entité régulatrice;
 la structure organisationnelle du Secrétariat exécutif de l'entité régulatrice;
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Autorit%C3%A9_de_r%C3%A9gulation_du_secteur_de_la_sant%C3%A9_(B%C3%A9nin)</t>
+          <t>Autorité_de_régulation_du_secteur_de_la_santé_(Bénin)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,9 +660,11 @@
           <t>Les commissions techniques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leur responsabilité consiste à examiner les documents qui peuvent être présentés à l'évaluation du Collège. Il s'agit de la Commission «Qualité et sécurité des soins» et de la Commission «Régulation et ressources»[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leur responsabilité consiste à examiner les documents qui peuvent être présentés à l'évaluation du Collège. Il s'agit de la Commission «Qualité et sécurité des soins» et de la Commission «Régulation et ressources».
 </t>
         </is>
       </c>
@@ -653,7 +675,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Autorit%C3%A9_de_r%C3%A9gulation_du_secteur_de_la_sant%C3%A9_(B%C3%A9nin)</t>
+          <t>Autorité_de_régulation_du_secteur_de_la_santé_(Bénin)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -671,9 +693,11 @@
           <t>commissions «Qualité et sécurité des soins»</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Cette commission est chargée [7]:
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cette commission est chargée :
 d'exécuter l'analyse économique et de santé publique des dispositifs et équipements médicaux ;
 d'exécuter l'évaluation de l'adéquation médicale, économique et sociale des médicaments ;
 d'exécuter l'évaluation du système des transferts de patients ;
@@ -688,7 +712,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Autorit%C3%A9_de_r%C3%A9gulation_du_secteur_de_la_sant%C3%A9_(B%C3%A9nin)</t>
+          <t>Autorité_de_régulation_du_secteur_de_la_santé_(Bénin)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -706,9 +730,11 @@
           <t>commissions de Régulation et ressources</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Elle est chargée[8]:
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Elle est chargée:
 de formuler des critères pour assurer une offre de soins de qualité;
 de formuler des critères pour garantir la sécurité des soins;
 de recommander des mécanismes de régulation entre les prestataires de soins et les tiers payants;
@@ -725,7 +751,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Autorit%C3%A9_de_r%C3%A9gulation_du_secteur_de_la_sant%C3%A9_(B%C3%A9nin)</t>
+          <t>Autorité_de_régulation_du_secteur_de_la_santé_(Bénin)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -743,9 +769,11 @@
           <t>Le secrétariat exécutif</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Sous l'autorité du président de l'Autorité de Régulation, le Secrétaire exécutif[7]:
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Sous l'autorité du président de l'Autorité de Régulation, le Secrétaire exécutif:
 est responsable de l'administration et des finances de l'institution;
 organise les sessions du Collège et les réunions des commissions techniques;
 met en œuvre les décisions prises par le Collège;
@@ -761,7 +789,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Autorit%C3%A9_de_r%C3%A9gulation_du_secteur_de_la_sant%C3%A9_(B%C3%A9nin)</t>
+          <t>Autorité_de_régulation_du_secteur_de_la_santé_(Bénin)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -779,9 +807,11 @@
           <t>Membres</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Neuf membres constituent l'Autorité de Régulation du secteur de la Santé (ARS), dirigé par un président[4],[9],[10]. La ARS bénéficie de l'appui du Secrétariat Exécutif[7],[11].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Neuf membres constituent l'Autorité de Régulation du secteur de la Santé (ARS), dirigé par un président. La ARS bénéficie de l'appui du Secrétariat Exécutif,.
 </t>
         </is>
       </c>
@@ -792,7 +822,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Autorit%C3%A9_de_r%C3%A9gulation_du_secteur_de_la_sant%C3%A9_(B%C3%A9nin)</t>
+          <t>Autorité_de_régulation_du_secteur_de_la_santé_(Bénin)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -810,9 +840,11 @@
           <t>Siège</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le siège de l'autorité de régulation du secteur de la santé se trouve à Cotonou plus précisément à la présidence de la république[2].
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le siège de l'autorité de régulation du secteur de la santé se trouve à Cotonou plus précisément à la présidence de la république.
 </t>
         </is>
       </c>
